--- a/Source/DK.Web/ReportTemplates/data ex.xlsx
+++ b/Source/DK.Web/ReportTemplates/data ex.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Source\qlts\Source\DK.Web\ReportTemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{117EA61A-647E-4C70-BAE3-C11F1E9619AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DB2A103-A31D-435D-95E6-B2A5E1588895}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26952" yWindow="2280" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="94">
   <si>
     <t>TT</t>
   </si>
@@ -804,7 +804,7 @@
   <dimension ref="A1:AI10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AI4" sqref="AI4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1043,9 +1043,7 @@
       <c r="A3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>59</v>
-      </c>
+      <c r="B3" s="6"/>
       <c r="C3" s="7" t="s">
         <v>63</v>
       </c>
